--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2847.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2847.xlsx
@@ -354,7 +354,7 @@
         <v>2.283533760440489</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.323702431912261</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2847.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2847.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170311692147968</v>
+        <v>1.220278859138489</v>
       </c>
       <c r="B1">
-        <v>2.283533760440489</v>
+        <v>1.930655121803284</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.239514350891113</v>
       </c>
       <c r="D1">
-        <v>2.323702431912261</v>
+        <v>3.101081848144531</v>
       </c>
       <c r="E1">
-        <v>1.230845496295412</v>
+        <v>1.187941551208496</v>
       </c>
     </row>
   </sheetData>
